--- a/output_from_KHA/data_tables_from_KHA/stats_analysis_output_mean_KHA.xlsx
+++ b/output_from_KHA/data_tables_from_KHA/stats_analysis_output_mean_KHA.xlsx
@@ -416,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O94"/>
+  <dimension ref="A1:O66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -520,7 +520,7 @@
         <v>3</v>
       </c>
       <c r="J4">
-        <v>0.01714342799478798</v>
+        <v>0.002382199372125741</v>
       </c>
       <c r="K4" t="b">
         <v>1</v>
@@ -563,7 +563,7 @@
         <v>3</v>
       </c>
       <c r="J5">
-        <v>0.0343403731285109</v>
+        <v>0.02124316946578823</v>
       </c>
       <c r="K5" t="b">
         <v>1</v>
@@ -575,10 +575,10 @@
         <v>-0.04016914116474088</v>
       </c>
       <c r="N5">
-        <v>0.0001682521504104635</v>
+        <v>0.0001547524617236402</v>
       </c>
       <c r="O5">
-        <v>-2.88500503539318</v>
+        <v>-3.040811689836488</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -606,7 +606,7 @@
         <v>3</v>
       </c>
       <c r="J6">
-        <v>0.008402796947833288</v>
+        <v>0.005230087507466235</v>
       </c>
       <c r="K6" t="b">
         <v>1</v>
@@ -618,10 +618,10 @@
         <v>0.009788714246415545</v>
       </c>
       <c r="N6">
-        <v>0.0001307313531626698</v>
+        <v>0.0001305769661509747</v>
       </c>
       <c r="O6">
-        <v>0.0300311213926608</v>
+        <v>0.0300082112751409</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -651,7 +651,7 @@
         <v>3</v>
       </c>
       <c r="J7">
-        <v>-0.009390029435075633</v>
+        <v>-0.01780638279215746</v>
       </c>
       <c r="K7" t="b">
         <v>0</v>
@@ -694,7 +694,7 @@
         <v>3</v>
       </c>
       <c r="J8">
-        <v>-2.68878104122891E-05</v>
+        <v>-0.009054627815559876</v>
       </c>
       <c r="K8" t="b">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>-0.0113369667949057</v>
       </c>
       <c r="N8">
-        <v>0.0001682521504104635</v>
+        <v>0.0001547524617236402</v>
       </c>
       <c r="O8">
-        <v>-2.88500503539318</v>
+        <v>-3.040811689836488</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -737,10 +737,10 @@
         <v>3</v>
       </c>
       <c r="J9">
-        <v>0.007296184366216346</v>
+        <v>-0.0009459629668418408</v>
       </c>
       <c r="K9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0.6900000000000001</v>
@@ -749,10 +749,10 @@
         <v>0.01540173088883663</v>
       </c>
       <c r="N9">
-        <v>0.0001307313531626698</v>
+        <v>0.0001305769661509747</v>
       </c>
       <c r="O9">
-        <v>0.0300311213926608</v>
+        <v>0.0300082112751409</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -782,7 +782,7 @@
         <v>3</v>
       </c>
       <c r="J10">
-        <v>0.04146709056513099</v>
+        <v>0.03478047237515812</v>
       </c>
       <c r="K10" t="b">
         <v>1</v>
@@ -825,7 +825,7 @@
         <v>3</v>
       </c>
       <c r="J11">
-        <v>0.05040743676610747</v>
+        <v>0.04399761279201861</v>
       </c>
       <c r="K11" t="b">
         <v>1</v>
@@ -837,10 +837,10 @@
         <v>-0.0428437118533057</v>
       </c>
       <c r="N11">
-        <v>0.0001682521504104635</v>
+        <v>0.0001547524617236402</v>
       </c>
       <c r="O11">
-        <v>-2.88500503539318</v>
+        <v>-3.040811689836488</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -868,7 +868,7 @@
         <v>3</v>
       </c>
       <c r="J12">
-        <v>0.02417054396263984</v>
+        <v>0.02226920360193932</v>
       </c>
       <c r="K12" t="b">
         <v>1</v>
@@ -880,10 +880,10 @@
         <v>0.01906927138255438</v>
       </c>
       <c r="N12">
-        <v>0.0001307313531626698</v>
+        <v>0.0001305769661509747</v>
       </c>
       <c r="O12">
-        <v>0.0300311213926608</v>
+        <v>0.0300082112751409</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -913,7 +913,7 @@
         <v>3</v>
       </c>
       <c r="J13">
-        <v>0.03177852691378696</v>
+        <v>0.02387078275657234</v>
       </c>
       <c r="K13" t="b">
         <v>1</v>
@@ -956,7 +956,7 @@
         <v>3</v>
       </c>
       <c r="J14">
-        <v>0.04563315708741669</v>
+        <v>0.03916948730672534</v>
       </c>
       <c r="K14" t="b">
         <v>1</v>
@@ -968,10 +968,10 @@
         <v>-0.03961718868338611</v>
       </c>
       <c r="N14">
-        <v>0.0001682521504104635</v>
+        <v>0.0001547524617236402</v>
       </c>
       <c r="O14">
-        <v>-2.88500503539318</v>
+        <v>-3.040811689836488</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -999,7 +999,7 @@
         <v>3</v>
       </c>
       <c r="J15">
-        <v>0.03508871792689954</v>
+        <v>0.03121687226281148</v>
       </c>
       <c r="K15" t="b">
         <v>1</v>
@@ -1011,10 +1011,10 @@
         <v>0.02908140641025168</v>
       </c>
       <c r="N15">
-        <v>0.0001307313531626698</v>
+        <v>0.0001305769661509747</v>
       </c>
       <c r="O15">
-        <v>0.0300311213926608</v>
+        <v>0.0300082112751409</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1044,7 +1044,7 @@
         <v>3</v>
       </c>
       <c r="J16">
-        <v>0.02311531171580498</v>
+        <v>0.01381226476294414</v>
       </c>
       <c r="K16" t="b">
         <v>1</v>
@@ -1087,7 +1087,7 @@
         <v>3</v>
       </c>
       <c r="J17">
-        <v>0.02820848793466125</v>
+        <v>0.01606347647788411</v>
       </c>
       <c r="K17" t="b">
         <v>1</v>
@@ -1099,10 +1099,10 @@
         <v>-0.03474042788086511</v>
       </c>
       <c r="N17">
-        <v>0.0001682521504104635</v>
+        <v>0.0001547524617236402</v>
       </c>
       <c r="O17">
-        <v>-2.88500503539318</v>
+        <v>-3.040811689836488</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1130,7 +1130,7 @@
         <v>3</v>
       </c>
       <c r="J18">
-        <v>0.0553886038401591</v>
+        <v>0.05123319826653616</v>
       </c>
       <c r="K18" t="b">
         <v>1</v>
@@ -1142,10 +1142,10 @@
         <v>0.04344500278820356</v>
       </c>
       <c r="N18">
-        <v>0.0001307313531626698</v>
+        <v>0.0001305769661509747</v>
       </c>
       <c r="O18">
-        <v>0.0300311213926608</v>
+        <v>0.0300082112751409</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1175,7 +1175,7 @@
         <v>3</v>
       </c>
       <c r="J19">
-        <v>-0.003765026007392036</v>
+        <v>-0.02603442881979812</v>
       </c>
       <c r="K19" t="b">
         <v>0</v>
@@ -1218,10 +1218,10 @@
         <v>3</v>
       </c>
       <c r="J20">
-        <v>0.008934487282420037</v>
+        <v>-0.01229049279501187</v>
       </c>
       <c r="K20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0.6900000000000001</v>
@@ -1230,10 +1230,10 @@
         <v>-0.03286258244365511</v>
       </c>
       <c r="N20">
-        <v>0.0001682521504104635</v>
+        <v>0.0001547524617236402</v>
       </c>
       <c r="O20">
-        <v>-2.88500503539318</v>
+        <v>-3.040811689836488</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1261,7 +1261,7 @@
         <v>3</v>
       </c>
       <c r="J21">
-        <v>0.04728064979001861</v>
+        <v>0.04362534002535416</v>
       </c>
       <c r="K21" t="b">
         <v>1</v>
@@ -1273,10 +1273,10 @@
         <v>0.03722147027553075</v>
       </c>
       <c r="N21">
-        <v>0.0001307313531626698</v>
+        <v>0.0001305769661509747</v>
       </c>
       <c r="O21">
-        <v>0.0300311213926608</v>
+        <v>0.0300082112751409</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1306,7 +1306,7 @@
         <v>3</v>
       </c>
       <c r="J22">
-        <v>0.02705385391148348</v>
+        <v>0.02161023400218184</v>
       </c>
       <c r="K22" t="b">
         <v>1</v>
@@ -1349,7 +1349,7 @@
         <v>3</v>
       </c>
       <c r="J23">
-        <v>0.03070875641902873</v>
+        <v>0.02603586832436706</v>
       </c>
       <c r="K23" t="b">
         <v>1</v>
@@ -1361,10 +1361,10 @@
         <v>-0.02706682211645893</v>
       </c>
       <c r="N23">
-        <v>0.0001682521504104635</v>
+        <v>0.0001547524617236402</v>
       </c>
       <c r="O23">
-        <v>-2.88500503539318</v>
+        <v>-3.040811689836488</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1392,7 +1392,7 @@
         <v>3</v>
       </c>
       <c r="J24">
-        <v>0.07972480056858586</v>
+        <v>0.07845544423904494</v>
       </c>
       <c r="K24" t="b">
         <v>1</v>
@@ -1404,10 +1404,10 @@
         <v>0.05660676896386935</v>
       </c>
       <c r="N24">
-        <v>0.0001307313531626698</v>
+        <v>0.0001305769661509747</v>
       </c>
       <c r="O24">
-        <v>0.0300311213926608</v>
+        <v>0.0300082112751409</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1418,19 +1418,19 @@
         <v>0.25</v>
       </c>
       <c r="C25" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25">
-        <v>4.21</v>
+        <v>4.13</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>0.009999999999999787</v>
       </c>
       <c r="F25">
-        <v>-0.0236688542046524</v>
+        <v>-0.0281632288071543</v>
       </c>
       <c r="G25">
-        <v>0.002137446670898774</v>
+        <v>0.005199805499632659</v>
       </c>
       <c r="H25">
         <v>2</v>
@@ -1439,7 +1439,7 @@
         <v>3</v>
       </c>
       <c r="J25">
-        <v>0.0213418970063801</v>
+        <v>0.01939711351005619</v>
       </c>
       <c r="K25" t="b">
         <v>1</v>
@@ -1448,32 +1448,32 @@
         <v>0.8128</v>
       </c>
       <c r="M25">
-        <v>-0.01923804469754147</v>
+        <v>-0.02289107237445501</v>
       </c>
       <c r="N25">
-        <v>5.196923033491395E-05</v>
+        <v>0.000401299166910411</v>
       </c>
       <c r="O25">
-        <v>-0.1663027392091717</v>
+        <v>-0.1262393571882886</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D26">
-        <v>4.13</v>
+        <v>0.84</v>
       </c>
       <c r="E26">
-        <v>0.009999999999999787</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>-0.0281632288071543</v>
+        <v>0.007147869850608095</v>
       </c>
       <c r="G26">
-        <v>0.005199805499632659</v>
+        <v>0.002313661925695162</v>
       </c>
       <c r="H26">
         <v>2</v>
@@ -1482,7 +1482,7 @@
         <v>3</v>
       </c>
       <c r="J26">
-        <v>0.02250239759123522</v>
+        <v>0.00324737257228054</v>
       </c>
       <c r="K26" t="b">
         <v>1</v>
@@ -1491,32 +1491,34 @@
         <v>0.8128</v>
       </c>
       <c r="M26">
-        <v>-0.02289107237445501</v>
+        <v>0.005809788614574259</v>
       </c>
       <c r="N26">
-        <v>0.000401299166910411</v>
+        <v>7.192778190105918E-05</v>
       </c>
       <c r="O26">
-        <v>-0.1262393571882886</v>
+        <v>0.04327897569620091</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
+      <c r="B27" s="1">
+        <v>0.5</v>
+      </c>
       <c r="C27" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D27">
-        <v>0.84</v>
+        <v>4.126666666666666</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>0.005773502691896071</v>
       </c>
       <c r="F27">
-        <v>0.007147869850608095</v>
+        <v>-0.01074364183609957</v>
       </c>
       <c r="G27">
-        <v>0.002313661925695162</v>
+        <v>0.004524913833545935</v>
       </c>
       <c r="H27">
         <v>2</v>
@@ -1525,7 +1527,7 @@
         <v>3</v>
       </c>
       <c r="J27">
-        <v>0.004629073781604385</v>
+        <v>0.003115295664862954</v>
       </c>
       <c r="K27" t="b">
         <v>1</v>
@@ -1534,34 +1536,32 @@
         <v>0.8128</v>
       </c>
       <c r="M27">
-        <v>0.005809788614574259</v>
+        <v>-0.008732432084381729</v>
       </c>
       <c r="N27">
-        <v>7.192778190105918E-05</v>
+        <v>0.000401299166910411</v>
       </c>
       <c r="O27">
-        <v>0.04327897569620091</v>
+        <v>-0.1262393571882886</v>
       </c>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="1"/>
-      <c r="B28" s="1">
-        <v>0.5</v>
-      </c>
+      <c r="B28" s="1"/>
       <c r="C28" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D28">
-        <v>4.21</v>
+        <v>0.84</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>-0.00583180288017348</v>
+        <v>0.0329813813170666</v>
       </c>
       <c r="G28">
-        <v>0.007335051471022041</v>
+        <v>0.008287490499801198</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -1570,41 +1570,43 @@
         <v>3</v>
       </c>
       <c r="J28">
-        <v>-0.002153589715851134</v>
+        <v>0.01900987848874064</v>
       </c>
       <c r="K28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28">
         <v>0.8128</v>
       </c>
       <c r="M28">
-        <v>-0.004740089381005004</v>
+        <v>0.02680726673451173</v>
       </c>
       <c r="N28">
-        <v>5.196923033491395E-05</v>
+        <v>7.192778190105918E-05</v>
       </c>
       <c r="O28">
-        <v>-0.1663027392091717</v>
+        <v>0.04327897569620091</v>
       </c>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
+      <c r="B29" s="1">
+        <v>0.75</v>
+      </c>
       <c r="C29" s="1">
         <v>2</v>
       </c>
       <c r="D29">
-        <v>4.126666666666666</v>
+        <v>4.13</v>
       </c>
       <c r="E29">
-        <v>0.005773502691896071</v>
+        <v>0.009999999999999787</v>
       </c>
       <c r="F29">
-        <v>-0.01074364183609957</v>
+        <v>-0.04434091324154351</v>
       </c>
       <c r="G29">
-        <v>0.004524913833545935</v>
+        <v>0.007634248094515067</v>
       </c>
       <c r="H29">
         <v>2</v>
@@ -1613,7 +1615,7 @@
         <v>3</v>
       </c>
       <c r="J29">
-        <v>0.005817539603989071</v>
+        <v>0.03147068203618431</v>
       </c>
       <c r="K29" t="b">
         <v>1</v>
@@ -1622,7 +1624,7 @@
         <v>0.8128</v>
       </c>
       <c r="M29">
-        <v>-0.008732432084381729</v>
+        <v>-0.03604029428272656</v>
       </c>
       <c r="N29">
         <v>0.000401299166910411</v>
@@ -1644,10 +1646,10 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>0.0329813813170666</v>
+        <v>0.03502719729146832</v>
       </c>
       <c r="G30">
-        <v>0.008287490499801198</v>
+        <v>0.008605089030030199</v>
       </c>
       <c r="H30">
         <v>2</v>
@@ -1656,7 +1658,7 @@
         <v>3</v>
       </c>
       <c r="J30">
-        <v>0.02395910444032157</v>
+        <v>0.02052026956419701</v>
       </c>
       <c r="K30" t="b">
         <v>1</v>
@@ -1665,7 +1667,7 @@
         <v>0.8128</v>
       </c>
       <c r="M30">
-        <v>0.02680726673451173</v>
+        <v>0.02847010595850545</v>
       </c>
       <c r="N30">
         <v>7.192778190105918E-05</v>
@@ -1677,22 +1679,22 @@
     <row r="31" spans="1:15">
       <c r="A31" s="1"/>
       <c r="B31" s="1">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C31" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D31">
-        <v>4.21</v>
+        <v>4.13</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>0.009999999999999787</v>
       </c>
       <c r="F31">
-        <v>-0.03566829400510518</v>
+        <v>-0.03485895034424891</v>
       </c>
       <c r="G31">
-        <v>0.007447238785024053</v>
+        <v>0.008989983311010809</v>
       </c>
       <c r="H31">
         <v>2</v>
@@ -1701,7 +1703,7 @@
         <v>3</v>
       </c>
       <c r="J31">
-        <v>0.02756076733133908</v>
+        <v>0.01970314687643152</v>
       </c>
       <c r="K31" t="b">
         <v>1</v>
@@ -1710,32 +1712,32 @@
         <v>0.8128</v>
       </c>
       <c r="M31">
-        <v>-0.02899118936734948</v>
+        <v>-0.02833335483980551</v>
       </c>
       <c r="N31">
-        <v>5.196923033491395E-05</v>
+        <v>0.000401299166910411</v>
       </c>
       <c r="O31">
-        <v>-0.1663027392091717</v>
+        <v>-0.1262393571882886</v>
       </c>
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D32">
-        <v>4.13</v>
+        <v>0.84</v>
       </c>
       <c r="E32">
-        <v>0.009999999999999787</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>-0.04434091324154351</v>
+        <v>0.05233476001043192</v>
       </c>
       <c r="G32">
-        <v>0.007634248094515067</v>
+        <v>0.00497037239107134</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -1744,7 +1746,7 @@
         <v>3</v>
       </c>
       <c r="J32">
-        <v>0.03602979661870932</v>
+        <v>0.04395543554286815</v>
       </c>
       <c r="K32" t="b">
         <v>1</v>
@@ -1753,32 +1755,34 @@
         <v>0.8128</v>
       </c>
       <c r="M32">
-        <v>-0.03604029428272656</v>
+        <v>0.04253769293647906</v>
       </c>
       <c r="N32">
-        <v>0.000401299166910411</v>
+        <v>7.192778190105918E-05</v>
       </c>
       <c r="O32">
-        <v>-0.1262393571882886</v>
+        <v>0.04327897569620091</v>
       </c>
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
+      <c r="B33" s="1">
+        <v>1.25</v>
+      </c>
       <c r="C33" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D33">
-        <v>0.84</v>
+        <v>4.13</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>0.009999999999999787</v>
       </c>
       <c r="F33">
-        <v>0.03502719729146832</v>
+        <v>-0.03152077493672577</v>
       </c>
       <c r="G33">
-        <v>0.008605089030030199</v>
+        <v>0.008555728249208904</v>
       </c>
       <c r="H33">
         <v>2</v>
@@ -1787,7 +1791,7 @@
         <v>3</v>
       </c>
       <c r="J33">
-        <v>0.02565916292933708</v>
+        <v>0.01709706230199298</v>
       </c>
       <c r="K33" t="b">
         <v>1</v>
@@ -1796,34 +1800,32 @@
         <v>0.8128</v>
       </c>
       <c r="M33">
-        <v>0.02847010595850545</v>
+        <v>-0.02562008586857071</v>
       </c>
       <c r="N33">
-        <v>7.192778190105918E-05</v>
+        <v>0.000401299166910411</v>
       </c>
       <c r="O33">
-        <v>0.04327897569620091</v>
+        <v>-0.1262393571882886</v>
       </c>
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="1"/>
-      <c r="B34" s="1">
-        <v>1</v>
-      </c>
+      <c r="B34" s="1"/>
       <c r="C34" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D34">
-        <v>4.21</v>
+        <v>0.84</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>-0.03179414829852616</v>
+        <v>0.06439037340110276</v>
       </c>
       <c r="G34">
-        <v>0.01559464915523831</v>
+        <v>0.01224547547640418</v>
       </c>
       <c r="H34">
         <v>2</v>
@@ -1832,7 +1834,7 @@
         <v>3</v>
       </c>
       <c r="J34">
-        <v>0.01481684467716658</v>
+        <v>0.04374628394400097</v>
       </c>
       <c r="K34" t="b">
         <v>1</v>
@@ -1841,32 +1843,34 @@
         <v>0.8128</v>
       </c>
       <c r="M34">
-        <v>-0.02584228373704206</v>
+        <v>0.05233649550041632</v>
       </c>
       <c r="N34">
-        <v>5.196923033491395E-05</v>
+        <v>7.192778190105918E-05</v>
       </c>
       <c r="O34">
-        <v>-0.1663027392091717</v>
+        <v>0.04327897569620091</v>
       </c>
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
+      <c r="B35" s="1">
+        <v>1.5</v>
+      </c>
       <c r="C35" s="1">
         <v>2</v>
       </c>
       <c r="D35">
-        <v>4.13</v>
+        <v>4.126666666666666</v>
       </c>
       <c r="E35">
-        <v>0.009999999999999787</v>
+        <v>0.005773502691896071</v>
       </c>
       <c r="F35">
-        <v>-0.03485895034424891</v>
+        <v>-0.0295226783317971</v>
       </c>
       <c r="G35">
-        <v>0.008989983311010809</v>
+        <v>0.01445033510128855</v>
       </c>
       <c r="H35">
         <v>2</v>
@@ -1875,7 +1879,7 @@
         <v>3</v>
       </c>
       <c r="J35">
-        <v>0.02507189616286526</v>
+        <v>0.005161516440540158</v>
       </c>
       <c r="K35" t="b">
         <v>1</v>
@@ -1884,7 +1888,7 @@
         <v>0.8128</v>
       </c>
       <c r="M35">
-        <v>-0.02833335483980551</v>
+        <v>-0.02399603294808468</v>
       </c>
       <c r="N35">
         <v>0.000401299166910411</v>
@@ -1906,10 +1910,10 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>0.05233476001043192</v>
+        <v>0.07241931145507809</v>
       </c>
       <c r="G36">
-        <v>0.00497037239107134</v>
+        <v>0.01137681024441958</v>
       </c>
       <c r="H36">
         <v>2</v>
@@ -1918,7 +1922,7 @@
         <v>3</v>
       </c>
       <c r="J36">
-        <v>0.04692370392610209</v>
+        <v>0.05323966515430117</v>
       </c>
       <c r="K36" t="b">
         <v>1</v>
@@ -1927,7 +1931,7 @@
         <v>0.8128</v>
       </c>
       <c r="M36">
-        <v>0.04253769293647906</v>
+        <v>0.05886241635068747</v>
       </c>
       <c r="N36">
         <v>7.192778190105918E-05</v>
@@ -1939,22 +1943,22 @@
     <row r="37" spans="1:15">
       <c r="A37" s="1"/>
       <c r="B37" s="1">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="C37" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D37">
-        <v>4.21</v>
+        <v>4.13</v>
       </c>
       <c r="E37">
         <v>0</v>
       </c>
       <c r="F37">
-        <v>-0.02561514312413264</v>
+        <v>-0.02462823287909157</v>
       </c>
       <c r="G37">
-        <v>0.01506682515916395</v>
+        <v>0.01066131933216198</v>
       </c>
       <c r="H37">
         <v>2</v>
@@ -1963,7 +1967,7 @@
         <v>3</v>
       </c>
       <c r="J37">
-        <v>0.009212461486941489</v>
+        <v>0.006654800124440381</v>
       </c>
       <c r="K37" t="b">
         <v>1</v>
@@ -1972,32 +1976,32 @@
         <v>0.8128</v>
       </c>
       <c r="M37">
-        <v>-0.02081998833129501</v>
+        <v>-0.02001782768412563</v>
       </c>
       <c r="N37">
-        <v>5.196923033491395E-05</v>
+        <v>0.000401299166910411</v>
       </c>
       <c r="O37">
-        <v>-0.1663027392091717</v>
+        <v>-0.1262393571882886</v>
       </c>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D38">
-        <v>4.13</v>
+        <v>0.84</v>
       </c>
       <c r="E38">
-        <v>0.009999999999999787</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>-0.03152077493672577</v>
+        <v>0.08783426244315606</v>
       </c>
       <c r="G38">
-        <v>0.008555728249208904</v>
+        <v>0.009391573985525795</v>
       </c>
       <c r="H38">
         <v>2</v>
@@ -2006,7 +2010,7 @@
         <v>3</v>
       </c>
       <c r="J38">
-        <v>0.02220647778629121</v>
+        <v>0.07200143554527259</v>
       </c>
       <c r="K38" t="b">
         <v>1</v>
@@ -2015,32 +2019,36 @@
         <v>0.8128</v>
       </c>
       <c r="M38">
-        <v>-0.02562008586857071</v>
+        <v>0.07139168851379725</v>
       </c>
       <c r="N38">
-        <v>0.000401299166910411</v>
+        <v>7.192778190105918E-05</v>
       </c>
       <c r="O38">
-        <v>-0.1262393571882886</v>
+        <v>0.04327897569620091</v>
       </c>
     </row>
     <row r="39" spans="1:15">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
+      <c r="A39" s="1">
+        <v>9.5625</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0.25</v>
+      </c>
       <c r="C39" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D39">
-        <v>0.84</v>
+        <v>4.21</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
-        <v>0.06439037340110276</v>
+        <v>-0.02987993259320718</v>
       </c>
       <c r="G39">
-        <v>0.01224547547640418</v>
+        <v>0.01500569514805531</v>
       </c>
       <c r="H39">
         <v>2</v>
@@ -2049,43 +2057,41 @@
         <v>3</v>
       </c>
       <c r="J39">
-        <v>0.05105918825667816</v>
+        <v>0.004582514489731706</v>
       </c>
       <c r="K39" t="b">
         <v>1</v>
       </c>
       <c r="L39">
-        <v>0.8128</v>
+        <v>0.95625</v>
       </c>
       <c r="M39">
-        <v>0.05233649550041632</v>
+        <v>-0.02857268554225436</v>
       </c>
       <c r="N39">
-        <v>7.192778190105918E-05</v>
+        <v>0.000319705781065315</v>
       </c>
       <c r="O39">
-        <v>0.04327897569620091</v>
+        <v>-0.08211860295878673</v>
       </c>
     </row>
     <row r="40" spans="1:15">
       <c r="A40" s="1"/>
-      <c r="B40" s="1">
-        <v>1.5</v>
-      </c>
+      <c r="B40" s="1"/>
       <c r="C40" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D40">
-        <v>4.21</v>
+        <v>4.123333333333334</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>0.005773502691896071</v>
       </c>
       <c r="F40">
-        <v>-0.02661504911390325</v>
+        <v>-0.04295785447267652</v>
       </c>
       <c r="G40">
-        <v>0.03194797519909745</v>
+        <v>0.02001347957059059</v>
       </c>
       <c r="H40">
         <v>2</v>
@@ -2094,41 +2100,41 @@
         <v>3</v>
       </c>
       <c r="J40">
-        <v>-0.008165500909599669</v>
+        <v>0.009218040661504397</v>
       </c>
       <c r="K40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L40">
-        <v>0.8128</v>
+        <v>0.95625</v>
       </c>
       <c r="M40">
-        <v>-0.02163271191978056</v>
+        <v>-0.04107844833949693</v>
       </c>
       <c r="N40">
-        <v>5.196923033491395E-05</v>
+        <v>0.0005338203559184425</v>
       </c>
       <c r="O40">
-        <v>-0.1663027392091717</v>
+        <v>-3.20460506544431</v>
       </c>
     </row>
     <row r="41" spans="1:15">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D41">
-        <v>4.126666666666666</v>
+        <v>0.84</v>
       </c>
       <c r="E41">
-        <v>0.005773502691896071</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>-0.0295226783317971</v>
+        <v>0.005112316986020166</v>
       </c>
       <c r="G41">
-        <v>0.01445033510128855</v>
+        <v>0.0161552443802548</v>
       </c>
       <c r="H41">
         <v>2</v>
@@ -2137,41 +2143,43 @@
         <v>3</v>
       </c>
       <c r="J41">
-        <v>0.01379114606051422</v>
+        <v>-0.02212307381852331</v>
       </c>
       <c r="K41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L41">
-        <v>0.8128</v>
+        <v>0.95625</v>
       </c>
       <c r="M41">
-        <v>-0.02399603294808468</v>
+        <v>0.004888653117881784</v>
       </c>
       <c r="N41">
-        <v>0.000401299166910411</v>
+        <v>3.58058861487688E-05</v>
       </c>
       <c r="O41">
-        <v>-0.1262393571882886</v>
+        <v>0.04793932803489583</v>
       </c>
     </row>
     <row r="42" spans="1:15">
       <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
+      <c r="B42" s="1">
+        <v>0.5</v>
+      </c>
       <c r="C42" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D42">
-        <v>0.84</v>
+        <v>4.21</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>0.07241931145507809</v>
+        <v>-0.01331696047576181</v>
       </c>
       <c r="G42">
-        <v>0.01137681024441958</v>
+        <v>0.006666379386047713</v>
       </c>
       <c r="H42">
         <v>2</v>
@@ -2180,43 +2188,41 @@
         <v>3</v>
       </c>
       <c r="J42">
-        <v>0.06003380923316844</v>
+        <v>0.002078415050087573</v>
       </c>
       <c r="K42" t="b">
         <v>1</v>
       </c>
       <c r="L42">
-        <v>0.8128</v>
+        <v>0.95625</v>
       </c>
       <c r="M42">
-        <v>0.05886241635068747</v>
+        <v>-0.01273434345494724</v>
       </c>
       <c r="N42">
-        <v>7.192778190105918E-05</v>
+        <v>0.000319705781065315</v>
       </c>
       <c r="O42">
-        <v>0.04327897569620091</v>
+        <v>-0.08211860295878673</v>
       </c>
     </row>
     <row r="43" spans="1:15">
       <c r="A43" s="1"/>
-      <c r="B43" s="1">
-        <v>1.75</v>
-      </c>
+      <c r="B43" s="1"/>
       <c r="C43" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D43">
-        <v>4.21</v>
+        <v>4.126666666666666</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>0.005773502691896263</v>
       </c>
       <c r="F43">
-        <v>-0.02528660991510849</v>
+        <v>-0.01677790940626914</v>
       </c>
       <c r="G43">
-        <v>0.02262293028269862</v>
+        <v>0.004215111413719318</v>
       </c>
       <c r="H43">
         <v>2</v>
@@ -2225,41 +2231,41 @@
         <v>3</v>
       </c>
       <c r="J43">
-        <v>0.0006578829465885214</v>
+        <v>0.009671845026478759</v>
       </c>
       <c r="K43" t="b">
         <v>1</v>
       </c>
       <c r="L43">
-        <v>0.8128</v>
+        <v>0.95625</v>
       </c>
       <c r="M43">
-        <v>-0.02055295653900018</v>
+        <v>-0.01604387586974487</v>
       </c>
       <c r="N43">
-        <v>5.196923033491395E-05</v>
+        <v>0.0005338203559184425</v>
       </c>
       <c r="O43">
-        <v>-0.1663027392091717</v>
+        <v>-3.20460506544431</v>
       </c>
     </row>
     <row r="44" spans="1:15">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D44">
-        <v>4.13</v>
+        <v>0.84</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="F44">
-        <v>-0.02462823287909157</v>
+        <v>0.02616868378106986</v>
       </c>
       <c r="G44">
-        <v>0.01066131933216198</v>
+        <v>0.01284108785265265</v>
       </c>
       <c r="H44">
         <v>2</v>
@@ -2268,41 +2274,43 @@
         <v>3</v>
       </c>
       <c r="J44">
-        <v>0.01302165850190618</v>
+        <v>0.004520478542533259</v>
       </c>
       <c r="K44" t="b">
         <v>1</v>
       </c>
       <c r="L44">
-        <v>0.8128</v>
+        <v>0.95625</v>
       </c>
       <c r="M44">
-        <v>-0.02001782768412563</v>
+        <v>0.02502380386564806</v>
       </c>
       <c r="N44">
-        <v>0.000401299166910411</v>
+        <v>3.58058861487688E-05</v>
       </c>
       <c r="O44">
-        <v>-0.1262393571882886</v>
+        <v>0.04793932803489583</v>
       </c>
     </row>
     <row r="45" spans="1:15">
       <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
+      <c r="B45" s="1">
+        <v>0.75</v>
+      </c>
       <c r="C45" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D45">
-        <v>0.84</v>
+        <v>4.21</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="F45">
-        <v>0.08783426244315606</v>
+        <v>-0.02584480003150308</v>
       </c>
       <c r="G45">
-        <v>0.009391573985525795</v>
+        <v>0.009498829096928566</v>
       </c>
       <c r="H45">
         <v>2</v>
@@ -2311,45 +2319,41 @@
         <v>3</v>
       </c>
       <c r="J45">
-        <v>0.07761001171154049</v>
+        <v>0.009831156625612483</v>
       </c>
       <c r="K45" t="b">
         <v>1</v>
       </c>
       <c r="L45">
-        <v>0.8128</v>
+        <v>0.95625</v>
       </c>
       <c r="M45">
-        <v>0.07139168851379725</v>
+        <v>-0.02471409003012482</v>
       </c>
       <c r="N45">
-        <v>7.192778190105918E-05</v>
+        <v>0.000319705781065315</v>
       </c>
       <c r="O45">
-        <v>0.04327897569620091</v>
+        <v>-0.08211860295878673</v>
       </c>
     </row>
     <row r="46" spans="1:15">
-      <c r="A46" s="1">
-        <v>9.5625</v>
-      </c>
-      <c r="B46" s="1">
-        <v>0.25</v>
-      </c>
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
       <c r="C46" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D46">
-        <v>4.21</v>
+        <v>4.123333333333334</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>0.005773502691896071</v>
       </c>
       <c r="F46">
-        <v>-0.02987993259320718</v>
+        <v>-0.03603961844839035</v>
       </c>
       <c r="G46">
-        <v>0.01500569514805531</v>
+        <v>0.01393479534890866</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -2358,7 +2362,7 @@
         <v>3</v>
       </c>
       <c r="J46">
-        <v>0.01354380088276574</v>
+        <v>0.01254758154842757</v>
       </c>
       <c r="K46" t="b">
         <v>1</v>
@@ -2367,32 +2371,32 @@
         <v>0.95625</v>
       </c>
       <c r="M46">
-        <v>-0.02857268554225436</v>
+        <v>-0.03446288514127327</v>
       </c>
       <c r="N46">
-        <v>0.000319705781065315</v>
+        <v>0.0005338203559184425</v>
       </c>
       <c r="O46">
-        <v>-0.08211860295878673</v>
+        <v>-3.20460506544431</v>
       </c>
     </row>
     <row r="47" spans="1:15">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D47">
-        <v>4.123333333333334</v>
+        <v>0.84</v>
       </c>
       <c r="E47">
-        <v>0.005773502691896071</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>-0.04295785447267652</v>
+        <v>0.03167766483345327</v>
       </c>
       <c r="G47">
-        <v>0.02001347957059059</v>
+        <v>0.01187694796661311</v>
       </c>
       <c r="H47">
         <v>2</v>
@@ -2401,7 +2405,7 @@
         <v>3</v>
       </c>
       <c r="J47">
-        <v>0.02116993761687076</v>
+        <v>0.01165485912267799</v>
       </c>
       <c r="K47" t="b">
         <v>1</v>
@@ -2410,32 +2414,34 @@
         <v>0.95625</v>
       </c>
       <c r="M47">
-        <v>-0.04107844833949693</v>
+        <v>0.03029176699698969</v>
       </c>
       <c r="N47">
-        <v>0.0005338203559184425</v>
+        <v>3.58058861487688E-05</v>
       </c>
       <c r="O47">
-        <v>-3.20460506544431</v>
+        <v>0.04793932803489583</v>
       </c>
     </row>
     <row r="48" spans="1:15">
       <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
+      <c r="B48" s="1">
+        <v>1</v>
+      </c>
       <c r="C48" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D48">
-        <v>3.01</v>
+        <v>4.21</v>
       </c>
       <c r="E48">
         <v>0</v>
       </c>
       <c r="F48">
-        <v>-0.008434620911422205</v>
+        <v>-0.03229893339214428</v>
       </c>
       <c r="G48">
-        <v>0.005450463515470185</v>
+        <v>0.009458381493120461</v>
       </c>
       <c r="H48">
         <v>2</v>
@@ -2444,7 +2450,7 @@
         <v>3</v>
       </c>
       <c r="J48">
-        <v>0.002500907811618503</v>
+        <v>0.0163534787595642</v>
       </c>
       <c r="K48" t="b">
         <v>1</v>
@@ -2453,32 +2459,32 @@
         <v>0.95625</v>
       </c>
       <c r="M48">
-        <v>-0.008065606246547485</v>
+        <v>-0.03088585505623797</v>
       </c>
       <c r="N48">
-        <v>8.291086534001641E-06</v>
+        <v>0.000319705781065315</v>
       </c>
       <c r="O48">
-        <v>-0.03343025869861649</v>
+        <v>-0.08211860295878673</v>
       </c>
     </row>
     <row r="49" spans="1:15">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D49">
-        <v>0.84</v>
+        <v>4.123333333333334</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>0.005773502691896071</v>
       </c>
       <c r="F49">
-        <v>0.005112316986020166</v>
+        <v>-0.03911054967675656</v>
       </c>
       <c r="G49">
-        <v>0.0161552443802548</v>
+        <v>0.008142809755422703</v>
       </c>
       <c r="H49">
         <v>2</v>
@@ -2487,43 +2493,41 @@
         <v>3</v>
       </c>
       <c r="J49">
-        <v>-0.0124752854146866</v>
+        <v>0.02538295752673991</v>
       </c>
       <c r="K49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L49">
         <v>0.95625</v>
       </c>
       <c r="M49">
-        <v>0.004888653117881784</v>
+        <v>-0.03739946312839847</v>
       </c>
       <c r="N49">
-        <v>3.58058861487688E-05</v>
+        <v>0.0005338203559184425</v>
       </c>
       <c r="O49">
-        <v>0.04793932803489583</v>
+        <v>-3.20460506544431</v>
       </c>
     </row>
     <row r="50" spans="1:15">
       <c r="A50" s="1"/>
-      <c r="B50" s="1">
-        <v>0.5</v>
-      </c>
+      <c r="B50" s="1"/>
       <c r="C50" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D50">
-        <v>4.21</v>
+        <v>0.84</v>
       </c>
       <c r="E50">
         <v>0</v>
       </c>
       <c r="F50">
-        <v>-0.01331696047576181</v>
+        <v>0.04703203759461003</v>
       </c>
       <c r="G50">
-        <v>0.006666379386047713</v>
+        <v>0.01544974978940244</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -2532,7 +2536,7 @@
         <v>3</v>
       </c>
       <c r="J50">
-        <v>0.006059525841261681</v>
+        <v>0.0209860079931592</v>
       </c>
       <c r="K50" t="b">
         <v>1</v>
@@ -2541,32 +2545,34 @@
         <v>0.95625</v>
       </c>
       <c r="M50">
-        <v>-0.01273434345494724</v>
+        <v>0.04497438594984585</v>
       </c>
       <c r="N50">
-        <v>0.000319705781065315</v>
+        <v>3.58058861487688E-05</v>
       </c>
       <c r="O50">
-        <v>-0.08211860295878673</v>
+        <v>0.04793932803489583</v>
       </c>
     </row>
     <row r="51" spans="1:15">
       <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
+      <c r="B51" s="1">
+        <v>1.25</v>
+      </c>
       <c r="C51" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D51">
-        <v>4.126666666666666</v>
+        <v>4.21</v>
       </c>
       <c r="E51">
-        <v>0.005773502691896263</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>-0.01677790940626914</v>
+        <v>-0.03695336966394552</v>
       </c>
       <c r="G51">
-        <v>0.004215111413719318</v>
+        <v>0.01056842410634317</v>
       </c>
       <c r="H51">
         <v>2</v>
@@ -2575,7 +2581,7 @@
         <v>3</v>
       </c>
       <c r="J51">
-        <v>0.01218907732956074</v>
+        <v>0.01913654474013246</v>
       </c>
       <c r="K51" t="b">
         <v>1</v>
@@ -2584,32 +2590,32 @@
         <v>0.95625</v>
       </c>
       <c r="M51">
-        <v>-0.01604387586974487</v>
+        <v>-0.0353366597411479</v>
       </c>
       <c r="N51">
-        <v>0.0005338203559184425</v>
+        <v>0.000319705781065315</v>
       </c>
       <c r="O51">
-        <v>-3.20460506544431</v>
+        <v>-0.08211860295878673</v>
       </c>
     </row>
     <row r="52" spans="1:15">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D52">
-        <v>3.01</v>
+        <v>4.123333333333334</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>0.005773502691896071</v>
       </c>
       <c r="F52">
-        <v>0.00113258996072817</v>
+        <v>-0.04510034878800714</v>
       </c>
       <c r="G52">
-        <v>0.01070157619867262</v>
+        <v>0.01539303655664706</v>
       </c>
       <c r="H52">
         <v>2</v>
@@ -2618,22 +2624,22 @@
         <v>3</v>
       </c>
       <c r="J52">
-        <v>-0.01051781054161027</v>
+        <v>0.01914992944298608</v>
       </c>
       <c r="K52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L52">
         <v>0.95625</v>
       </c>
       <c r="M52">
-        <v>0.001083039149946312</v>
+        <v>-0.04312720852853184</v>
       </c>
       <c r="N52">
-        <v>8.291086534001641E-06</v>
+        <v>0.0005338203559184425</v>
       </c>
       <c r="O52">
-        <v>-0.03343025869861649</v>
+        <v>-3.20460506544431</v>
       </c>
     </row>
     <row r="53" spans="1:15">
@@ -2649,10 +2655,10 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>0.02616868378106986</v>
+        <v>0.05321635045963603</v>
       </c>
       <c r="G53">
-        <v>0.01284108785265265</v>
+        <v>0.02231369424164069</v>
       </c>
       <c r="H53">
         <v>2</v>
@@ -2661,7 +2667,7 @@
         <v>3</v>
       </c>
       <c r="J53">
-        <v>0.01218907801162509</v>
+        <v>0.01559870948436589</v>
       </c>
       <c r="K53" t="b">
         <v>1</v>
@@ -2670,7 +2676,7 @@
         <v>0.95625</v>
       </c>
       <c r="M53">
-        <v>0.02502380386564806</v>
+        <v>0.05088813512702695</v>
       </c>
       <c r="N53">
         <v>3.58058861487688E-05</v>
@@ -2682,7 +2688,7 @@
     <row r="54" spans="1:15">
       <c r="A54" s="1"/>
       <c r="B54" s="1">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="C54" s="1">
         <v>1</v>
@@ -2694,10 +2700,10 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>-0.02584480003150308</v>
+        <v>-0.03543019819677502</v>
       </c>
       <c r="G54">
-        <v>0.009498829096928566</v>
+        <v>0.01041600570035822</v>
       </c>
       <c r="H54">
         <v>2</v>
@@ -2706,7 +2712,7 @@
         <v>3</v>
       </c>
       <c r="J54">
-        <v>0.01550378472422431</v>
+        <v>0.01787032852260705</v>
       </c>
       <c r="K54" t="b">
         <v>1</v>
@@ -2715,7 +2721,7 @@
         <v>0.95625</v>
       </c>
       <c r="M54">
-        <v>-0.02471409003012482</v>
+        <v>-0.03388012702566612</v>
       </c>
       <c r="N54">
         <v>0.000319705781065315</v>
@@ -2737,10 +2743,10 @@
         <v>0.005773502691896071</v>
       </c>
       <c r="F55">
-        <v>-0.03603961844839035</v>
+        <v>-0.04277346670105023</v>
       </c>
       <c r="G55">
-        <v>0.01393479534890866</v>
+        <v>0.008317957652262679</v>
       </c>
       <c r="H55">
         <v>2</v>
@@ -2749,7 +2755,7 @@
         <v>3</v>
       </c>
       <c r="J55">
-        <v>0.02086933477064149</v>
+        <v>0.02875060068783774</v>
       </c>
       <c r="K55" t="b">
         <v>1</v>
@@ -2758,7 +2764,7 @@
         <v>0.95625</v>
       </c>
       <c r="M55">
-        <v>-0.03446288514127327</v>
+        <v>-0.04090212753287928</v>
       </c>
       <c r="N55">
         <v>0.0005338203559184425</v>
@@ -2771,19 +2777,19 @@
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D56">
-        <v>3.01</v>
+        <v>0.84</v>
       </c>
       <c r="E56">
         <v>0</v>
       </c>
       <c r="F56">
-        <v>-0.01194036321305134</v>
+        <v>0.05935241336361029</v>
       </c>
       <c r="G56">
-        <v>0.00518104968068414</v>
+        <v>0.02278608954746924</v>
       </c>
       <c r="H56">
         <v>2</v>
@@ -2792,7 +2798,7 @@
         <v>3</v>
       </c>
       <c r="J56">
-        <v>0.00629995074652422</v>
+        <v>0.0209383826547254</v>
       </c>
       <c r="K56" t="b">
         <v>1</v>
@@ -2801,32 +2807,34 @@
         <v>0.95625</v>
       </c>
       <c r="M56">
-        <v>-0.01141797232248034</v>
+        <v>0.05675574527895234</v>
       </c>
       <c r="N56">
-        <v>8.291086534001641E-06</v>
+        <v>3.58058861487688E-05</v>
       </c>
       <c r="O56">
-        <v>-0.03343025869861649</v>
+        <v>0.04793932803489583</v>
       </c>
     </row>
     <row r="57" spans="1:15">
       <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
+      <c r="B57" s="1">
+        <v>1.75</v>
+      </c>
       <c r="C57" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D57">
-        <v>0.84</v>
+        <v>4.21</v>
       </c>
       <c r="E57">
         <v>0</v>
       </c>
       <c r="F57">
-        <v>0.03167766483345327</v>
+        <v>-0.03517093223489073</v>
       </c>
       <c r="G57">
-        <v>0.01187694796661311</v>
+        <v>0.01616099198839087</v>
       </c>
       <c r="H57">
         <v>2</v>
@@ -2835,7 +2843,7 @@
         <v>3</v>
       </c>
       <c r="J57">
-        <v>0.01874768162465829</v>
+        <v>0.007925851799531855</v>
       </c>
       <c r="K57" t="b">
         <v>1</v>
@@ -2844,34 +2852,32 @@
         <v>0.95625</v>
       </c>
       <c r="M57">
-        <v>0.03029176699698969</v>
+        <v>-0.03363220394961426</v>
       </c>
       <c r="N57">
-        <v>3.58058861487688E-05</v>
+        <v>0.000319705781065315</v>
       </c>
       <c r="O57">
-        <v>0.04793932803489583</v>
+        <v>-0.08211860295878673</v>
       </c>
     </row>
     <row r="58" spans="1:15">
       <c r="A58" s="1"/>
-      <c r="B58" s="1">
-        <v>1</v>
-      </c>
+      <c r="B58" s="1"/>
       <c r="C58" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D58">
-        <v>4.21</v>
+        <v>4.126666666666666</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>0.005773502691896071</v>
       </c>
       <c r="F58">
-        <v>-0.03229893339214428</v>
+        <v>-0.04352820982743775</v>
       </c>
       <c r="G58">
-        <v>0.009458381493120461</v>
+        <v>0.01004121160723946</v>
       </c>
       <c r="H58">
         <v>2</v>
@@ -2880,7 +2886,7 @@
         <v>3</v>
       </c>
       <c r="J58">
-        <v>0.02200195185848691</v>
+        <v>0.02660018844705355</v>
       </c>
       <c r="K58" t="b">
         <v>1</v>
@@ -2889,32 +2895,32 @@
         <v>0.95625</v>
       </c>
       <c r="M58">
-        <v>-0.03088585505623797</v>
+        <v>-0.04162385064748735</v>
       </c>
       <c r="N58">
-        <v>0.000319705781065315</v>
+        <v>0.0005338203559184425</v>
       </c>
       <c r="O58">
-        <v>-0.08211860295878673</v>
+        <v>-3.20460506544431</v>
       </c>
     </row>
     <row r="59" spans="1:15">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D59">
-        <v>4.123333333333334</v>
+        <v>0.84</v>
       </c>
       <c r="E59">
-        <v>0.005773502691896071</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>-0.03911054967675656</v>
+        <v>0.0736793570192002</v>
       </c>
       <c r="G59">
-        <v>0.008142809755422703</v>
+        <v>0.02055531290713988</v>
       </c>
       <c r="H59">
         <v>2</v>
@@ -2923,7 +2929,7 @@
         <v>3</v>
       </c>
       <c r="J59">
-        <v>0.03024578124415969</v>
+        <v>0.03902609106057026</v>
       </c>
       <c r="K59" t="b">
         <v>1</v>
@@ -2932,61 +2938,67 @@
         <v>0.95625</v>
       </c>
       <c r="M59">
-        <v>-0.03739946312839847</v>
+        <v>0.0704558851496102</v>
       </c>
       <c r="N59">
-        <v>0.0005338203559184425</v>
+        <v>3.58058861487688E-05</v>
       </c>
       <c r="O59">
-        <v>-3.20460506544431</v>
+        <v>0.04793932803489583</v>
       </c>
     </row>
     <row r="60" spans="1:15">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
+      <c r="A60" s="1">
+        <v>11.25</v>
+      </c>
+      <c r="B60" s="1">
+        <v>0.25</v>
+      </c>
       <c r="C60" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D60">
-        <v>3.01</v>
+        <v>0.84</v>
       </c>
       <c r="E60">
         <v>0</v>
       </c>
       <c r="F60">
-        <v>-0.01505905429852406</v>
+        <v>0.01029271137188563</v>
       </c>
       <c r="G60">
-        <v>0.004958052579689367</v>
+        <v>0.01573650501937748</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J60">
-        <v>0.009661410326022309</v>
+        <v>-0.05996286037998179</v>
       </c>
       <c r="K60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L60">
-        <v>0.95625</v>
+        <v>1.125</v>
       </c>
       <c r="M60">
-        <v>-0.01440022067296363</v>
+        <v>0.01157930029337133</v>
       </c>
       <c r="N60">
-        <v>8.291086534001641E-06</v>
+        <v>0.0006816134021345965</v>
       </c>
       <c r="O60">
-        <v>-0.03343025869861649</v>
+        <v>0.1149075600856282</v>
       </c>
     </row>
     <row r="61" spans="1:15">
       <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
+      <c r="B61" s="1">
+        <v>0.5</v>
+      </c>
       <c r="C61" s="1">
         <v>7</v>
       </c>
@@ -2997,170 +3009,176 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>0.04703203759461003</v>
+        <v>0.0302498140264821</v>
       </c>
       <c r="G61">
-        <v>0.01544974978940244</v>
+        <v>0.002570751469320847</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J61">
-        <v>0.03021248042229522</v>
+        <v>0.01877270306145576</v>
       </c>
       <c r="K61" t="b">
         <v>1</v>
       </c>
       <c r="L61">
-        <v>0.95625</v>
+        <v>1.125</v>
       </c>
       <c r="M61">
-        <v>0.04497438594984585</v>
+        <v>0.03403104077979237</v>
       </c>
       <c r="N61">
-        <v>3.58058861487688E-05</v>
+        <v>0.0006816134021345965</v>
       </c>
       <c r="O61">
-        <v>0.04793932803489583</v>
+        <v>0.1149075600856282</v>
       </c>
     </row>
     <row r="62" spans="1:15">
       <c r="A62" s="1"/>
       <c r="B62" s="1">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="C62" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D62">
-        <v>4.21</v>
+        <v>0.84</v>
       </c>
       <c r="E62">
         <v>0</v>
       </c>
       <c r="F62">
-        <v>-0.03695336966394552</v>
+        <v>0.03626977845450809</v>
       </c>
       <c r="G62">
-        <v>0.01056842410634317</v>
+        <v>0.01707967409374057</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J62">
-        <v>0.02544792679911423</v>
+        <v>-0.03998236694332501</v>
       </c>
       <c r="K62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L62">
-        <v>0.95625</v>
+        <v>1.125</v>
       </c>
       <c r="M62">
-        <v>-0.0353366597411479</v>
+        <v>0.0408035007613216</v>
       </c>
       <c r="N62">
-        <v>0.000319705781065315</v>
+        <v>0.0006816134021345965</v>
       </c>
       <c r="O62">
-        <v>-0.08211860295878673</v>
+        <v>0.1149075600856282</v>
       </c>
     </row>
     <row r="63" spans="1:15">
       <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
+      <c r="B63" s="1">
+        <v>1</v>
+      </c>
       <c r="C63" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D63">
-        <v>4.123333333333334</v>
+        <v>0.84</v>
       </c>
       <c r="E63">
-        <v>0.005773502691896071</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>-0.04510034878800714</v>
+        <v>0.08537373884009056</v>
       </c>
       <c r="G63">
-        <v>0.01539303655664706</v>
+        <v>0.007366193041452328</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J63">
-        <v>0.02834253316320983</v>
+        <v>0.05248739570833378</v>
       </c>
       <c r="K63" t="b">
         <v>1</v>
       </c>
       <c r="L63">
-        <v>0.95625</v>
+        <v>1.125</v>
       </c>
       <c r="M63">
-        <v>-0.04312720852853184</v>
+        <v>0.09604545619510188</v>
       </c>
       <c r="N63">
-        <v>0.0005338203559184425</v>
+        <v>0.0006816134021345965</v>
       </c>
       <c r="O63">
-        <v>-3.20460506544431</v>
+        <v>0.1149075600856282</v>
       </c>
     </row>
     <row r="64" spans="1:15">
       <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
+      <c r="B64" s="1">
+        <v>1.25</v>
+      </c>
       <c r="C64" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D64">
-        <v>3.01</v>
+        <v>0.84</v>
       </c>
       <c r="E64">
         <v>0</v>
       </c>
       <c r="F64">
-        <v>-0.0141696740619795</v>
+        <v>0.0984580970384466</v>
       </c>
       <c r="G64">
-        <v>0.009154417034755074</v>
+        <v>0.009752684748180307</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J64">
-        <v>0.004203607116293971</v>
+        <v>0.05491727000884802</v>
       </c>
       <c r="K64" t="b">
         <v>1</v>
       </c>
       <c r="L64">
-        <v>0.95625</v>
+        <v>1.125</v>
       </c>
       <c r="M64">
-        <v>-0.0135497508217679</v>
+        <v>0.1107653591682524</v>
       </c>
       <c r="N64">
-        <v>8.291086534001641E-06</v>
+        <v>0.0006816134021345965</v>
       </c>
       <c r="O64">
-        <v>-0.03343025869861649</v>
+        <v>0.1149075600856282</v>
       </c>
     </row>
     <row r="65" spans="1:15">
       <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
+      <c r="B65" s="1">
+        <v>1.5</v>
+      </c>
       <c r="C65" s="1">
         <v>7</v>
       </c>
@@ -3171,1328 +3189,89 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>0.05321635045963603</v>
+        <v>0.08634685445317031</v>
       </c>
       <c r="G65">
-        <v>0.02231369424164069</v>
+        <v>0.007685617053762413</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J65">
-        <v>0.02892427705141397</v>
+        <v>0.05203444393297582</v>
       </c>
       <c r="K65" t="b">
         <v>1</v>
       </c>
       <c r="L65">
-        <v>0.95625</v>
+        <v>1.125</v>
       </c>
       <c r="M65">
-        <v>0.05088813512702695</v>
+        <v>0.09714021125981659</v>
       </c>
       <c r="N65">
-        <v>3.58058861487688E-05</v>
+        <v>0.0006816134021345965</v>
       </c>
       <c r="O65">
-        <v>0.04793932803489583</v>
+        <v>0.1149075600856282</v>
       </c>
     </row>
     <row r="66" spans="1:15">
       <c r="A66" s="1"/>
       <c r="B66" s="1">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="C66" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D66">
-        <v>4.21</v>
+        <v>0.84</v>
       </c>
       <c r="E66">
         <v>0</v>
       </c>
       <c r="F66">
-        <v>-0.03543019819677502</v>
+        <v>0.1065616981077511</v>
       </c>
       <c r="G66">
-        <v>0.01041600570035822</v>
+        <v>0.002026540845089385</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J66">
-        <v>0.02409068747508662</v>
+        <v>0.09751421357576957</v>
       </c>
       <c r="K66" t="b">
         <v>1</v>
       </c>
       <c r="L66">
-        <v>0.95625</v>
+        <v>1.125</v>
       </c>
       <c r="M66">
-        <v>-0.03388012702566612</v>
+        <v>0.11988191037122</v>
       </c>
       <c r="N66">
-        <v>0.000319705781065315</v>
+        <v>0.0006816134021345965</v>
       </c>
       <c r="O66">
-        <v>-0.08211860295878673</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1">
-        <v>2</v>
-      </c>
-      <c r="D67">
-        <v>4.123333333333334</v>
-      </c>
-      <c r="E67">
-        <v>0.005773502691896071</v>
-      </c>
-      <c r="F67">
-        <v>-0.04277346670105023</v>
-      </c>
-      <c r="G67">
-        <v>0.008317957652262679</v>
-      </c>
-      <c r="H67">
-        <v>2</v>
-      </c>
-      <c r="I67">
-        <v>3</v>
-      </c>
-      <c r="J67">
-        <v>0.03371802138988465</v>
-      </c>
-      <c r="K67" t="b">
-        <v>1</v>
-      </c>
-      <c r="L67">
-        <v>0.95625</v>
-      </c>
-      <c r="M67">
-        <v>-0.04090212753287928</v>
-      </c>
-      <c r="N67">
-        <v>0.0005338203559184425</v>
-      </c>
-      <c r="O67">
-        <v>-3.20460506544431</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1">
-        <v>5</v>
-      </c>
-      <c r="D68">
-        <v>3.01</v>
-      </c>
-      <c r="E68">
-        <v>0</v>
-      </c>
-      <c r="F68">
-        <v>-0.01756391963509282</v>
-      </c>
-      <c r="G68">
-        <v>0.009887314735031263</v>
-      </c>
-      <c r="H68">
-        <v>2</v>
-      </c>
-      <c r="I68">
-        <v>3</v>
-      </c>
-      <c r="J68">
-        <v>0.006799974734146881</v>
-      </c>
-      <c r="K68" t="b">
-        <v>1</v>
-      </c>
-      <c r="L68">
-        <v>0.95625</v>
-      </c>
-      <c r="M68">
-        <v>-0.01679549815105751</v>
-      </c>
-      <c r="N68">
-        <v>8.291086534001641E-06</v>
-      </c>
-      <c r="O68">
-        <v>-0.03343025869861649</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1">
-        <v>7</v>
-      </c>
-      <c r="D69">
-        <v>0.84</v>
-      </c>
-      <c r="E69">
-        <v>0</v>
-      </c>
-      <c r="F69">
-        <v>0.05935241336361029</v>
-      </c>
-      <c r="G69">
-        <v>0.02278608954746924</v>
-      </c>
-      <c r="H69">
-        <v>2</v>
-      </c>
-      <c r="I69">
-        <v>3</v>
-      </c>
-      <c r="J69">
-        <v>0.03454606108598113</v>
-      </c>
-      <c r="K69" t="b">
-        <v>1</v>
-      </c>
-      <c r="L69">
-        <v>0.95625</v>
-      </c>
-      <c r="M69">
-        <v>0.05675574527895234</v>
-      </c>
-      <c r="N69">
-        <v>3.58058861487688E-05</v>
-      </c>
-      <c r="O69">
-        <v>0.04793932803489583</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1">
-        <v>1.75</v>
-      </c>
-      <c r="C70" s="1">
-        <v>1</v>
-      </c>
-      <c r="D70">
-        <v>4.21</v>
-      </c>
-      <c r="E70">
-        <v>0</v>
-      </c>
-      <c r="F70">
-        <v>-0.03517093223489073</v>
-      </c>
-      <c r="G70">
-        <v>0.01616099198839087</v>
-      </c>
-      <c r="H70">
-        <v>2</v>
-      </c>
-      <c r="I70">
-        <v>3</v>
-      </c>
-      <c r="J70">
-        <v>0.01757707263099515</v>
-      </c>
-      <c r="K70" t="b">
-        <v>1</v>
-      </c>
-      <c r="L70">
-        <v>0.95625</v>
-      </c>
-      <c r="M70">
-        <v>-0.03363220394961426</v>
-      </c>
-      <c r="N70">
-        <v>0.000319705781065315</v>
-      </c>
-      <c r="O70">
-        <v>-0.08211860295878673</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1">
-        <v>2</v>
-      </c>
-      <c r="D71">
-        <v>4.126666666666666</v>
-      </c>
-      <c r="E71">
-        <v>0.005773502691896071</v>
-      </c>
-      <c r="F71">
-        <v>-0.04352820982743775</v>
-      </c>
-      <c r="G71">
-        <v>0.01004121160723946</v>
-      </c>
-      <c r="H71">
-        <v>2</v>
-      </c>
-      <c r="I71">
-        <v>3</v>
-      </c>
-      <c r="J71">
-        <v>0.03259672323319385</v>
-      </c>
-      <c r="K71" t="b">
-        <v>1</v>
-      </c>
-      <c r="L71">
-        <v>0.95625</v>
-      </c>
-      <c r="M71">
-        <v>-0.04162385064748735</v>
-      </c>
-      <c r="N71">
-        <v>0.0005338203559184425</v>
-      </c>
-      <c r="O71">
-        <v>-3.20460506544431</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1">
-        <v>5</v>
-      </c>
-      <c r="D72">
-        <v>3.01</v>
-      </c>
-      <c r="E72">
-        <v>0</v>
-      </c>
-      <c r="F72">
-        <v>-0.01706845043966688</v>
-      </c>
-      <c r="G72">
-        <v>0.009707030441344721</v>
-      </c>
-      <c r="H72">
-        <v>2</v>
-      </c>
-      <c r="I72">
-        <v>3</v>
-      </c>
-      <c r="J72">
-        <v>0.006500774217907653</v>
-      </c>
-      <c r="K72" t="b">
-        <v>1</v>
-      </c>
-      <c r="L72">
-        <v>0.95625</v>
-      </c>
-      <c r="M72">
-        <v>-0.01632170573293146</v>
-      </c>
-      <c r="N72">
-        <v>8.291086534001641E-06</v>
-      </c>
-      <c r="O72">
-        <v>-0.03343025869861649</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1">
-        <v>7</v>
-      </c>
-      <c r="D73">
-        <v>0.84</v>
-      </c>
-      <c r="E73">
-        <v>0</v>
-      </c>
-      <c r="F73">
-        <v>0.0736793570192002</v>
-      </c>
-      <c r="G73">
-        <v>0.02055531290713988</v>
-      </c>
-      <c r="H73">
-        <v>2</v>
-      </c>
-      <c r="I73">
-        <v>3</v>
-      </c>
-      <c r="J73">
-        <v>0.05130156674109422</v>
-      </c>
-      <c r="K73" t="b">
-        <v>1</v>
-      </c>
-      <c r="L73">
-        <v>0.95625</v>
-      </c>
-      <c r="M73">
-        <v>0.0704558851496102</v>
-      </c>
-      <c r="N73">
-        <v>3.58058861487688E-05</v>
-      </c>
-      <c r="O73">
-        <v>0.04793932803489583</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15">
-      <c r="A74" s="1">
-        <v>11.25</v>
-      </c>
-      <c r="B74" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="C74" s="1">
-        <v>6</v>
-      </c>
-      <c r="D74">
-        <v>1.69</v>
-      </c>
-      <c r="E74">
-        <v>0</v>
-      </c>
-      <c r="F74">
-        <v>-0.01819788611452542</v>
-      </c>
-      <c r="G74">
-        <v>0.005885302263580475</v>
-      </c>
-      <c r="H74">
-        <v>1</v>
-      </c>
-      <c r="I74">
-        <v>2</v>
-      </c>
-      <c r="J74">
-        <v>0.005389991769544656</v>
-      </c>
-      <c r="K74" t="b">
-        <v>1</v>
-      </c>
-      <c r="L74">
-        <v>1.125</v>
-      </c>
-      <c r="M74">
-        <v>-0.0204726218788411</v>
-      </c>
-      <c r="N74">
-        <v>0.002663786316290402</v>
-      </c>
-      <c r="O74">
-        <v>-0.1787430943524582</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1">
-        <v>7</v>
-      </c>
-      <c r="D75">
-        <v>0.84</v>
-      </c>
-      <c r="E75">
-        <v>0</v>
-      </c>
-      <c r="F75">
-        <v>0.01029271137188563</v>
-      </c>
-      <c r="G75">
-        <v>0.01573650501937748</v>
-      </c>
-      <c r="H75">
-        <v>1</v>
-      </c>
-      <c r="I75">
-        <v>2</v>
-      </c>
-      <c r="J75">
-        <v>-0.02395387183161277</v>
-      </c>
-      <c r="K75" t="b">
-        <v>0</v>
-      </c>
-      <c r="L75">
-        <v>1.125</v>
-      </c>
-      <c r="M75">
-        <v>0.01157930029337133</v>
-      </c>
-      <c r="N75">
-        <v>0.0006816134021345965</v>
-      </c>
-      <c r="O75">
         <v>0.1149075600856282</v>
       </c>
     </row>
-    <row r="76" spans="1:15">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="C76" s="1">
-        <v>6</v>
-      </c>
-      <c r="D76">
-        <v>1.69</v>
-      </c>
-      <c r="E76">
-        <v>0</v>
-      </c>
-      <c r="F76">
-        <v>-0.0178477272554365</v>
-      </c>
-      <c r="G76">
-        <v>0.009757096929115966</v>
-      </c>
-      <c r="H76">
-        <v>1</v>
-      </c>
-      <c r="I76">
-        <v>2</v>
-      </c>
-      <c r="J76">
-        <v>-0.003386163713117792</v>
-      </c>
-      <c r="K76" t="b">
-        <v>0</v>
-      </c>
-      <c r="L76">
-        <v>1.125</v>
-      </c>
-      <c r="M76">
-        <v>-0.02007869316236606</v>
-      </c>
-      <c r="N76">
-        <v>0.002663786316290402</v>
-      </c>
-      <c r="O76">
-        <v>-0.1787430943524582</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1">
-        <v>7</v>
-      </c>
-      <c r="D77">
-        <v>0.84</v>
-      </c>
-      <c r="E77">
-        <v>0</v>
-      </c>
-      <c r="F77">
-        <v>0.0302498140264821</v>
-      </c>
-      <c r="G77">
-        <v>0.002570751469320847</v>
-      </c>
-      <c r="H77">
-        <v>1</v>
-      </c>
-      <c r="I77">
-        <v>2</v>
-      </c>
-      <c r="J77">
-        <v>0.02465521382896665</v>
-      </c>
-      <c r="K77" t="b">
-        <v>1</v>
-      </c>
-      <c r="L77">
-        <v>1.125</v>
-      </c>
-      <c r="M77">
-        <v>0.03403104077979237</v>
-      </c>
-      <c r="N77">
-        <v>0.0006816134021345965</v>
-      </c>
-      <c r="O77">
-        <v>0.1149075600856282</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="C78" s="1">
-        <v>6</v>
-      </c>
-      <c r="D78">
-        <v>1.69</v>
-      </c>
-      <c r="E78">
-        <v>0</v>
-      </c>
-      <c r="F78">
-        <v>-0.06218892423697651</v>
-      </c>
-      <c r="G78">
-        <v>0.01173922664296433</v>
-      </c>
-      <c r="H78">
-        <v>1</v>
-      </c>
-      <c r="I78">
-        <v>2</v>
-      </c>
-      <c r="J78">
-        <v>0.03664142169572247</v>
-      </c>
-      <c r="K78" t="b">
-        <v>1</v>
-      </c>
-      <c r="L78">
-        <v>1.125</v>
-      </c>
-      <c r="M78">
-        <v>-0.06996253976659858</v>
-      </c>
-      <c r="N78">
-        <v>0.002663786316290402</v>
-      </c>
-      <c r="O78">
-        <v>-0.1787430943524582</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1">
-        <v>7</v>
-      </c>
-      <c r="D79">
-        <v>0.84</v>
-      </c>
-      <c r="E79">
-        <v>0</v>
-      </c>
-      <c r="F79">
-        <v>0.03626977845450809</v>
-      </c>
-      <c r="G79">
-        <v>0.01707967409374057</v>
-      </c>
-      <c r="H79">
-        <v>1</v>
-      </c>
-      <c r="I79">
-        <v>2</v>
-      </c>
-      <c r="J79">
-        <v>-0.0008998776552614149</v>
-      </c>
-      <c r="K79" t="b">
-        <v>0</v>
-      </c>
-      <c r="L79">
-        <v>1.125</v>
-      </c>
-      <c r="M79">
-        <v>0.0408035007613216</v>
-      </c>
-      <c r="N79">
-        <v>0.0006816134021345965</v>
-      </c>
-      <c r="O79">
-        <v>0.1149075600856282</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1">
-        <v>1</v>
-      </c>
-      <c r="C80" s="1">
-        <v>6</v>
-      </c>
-      <c r="D80">
-        <v>1.69</v>
-      </c>
-      <c r="E80">
-        <v>0</v>
-      </c>
-      <c r="F80">
-        <v>-0.009167475756617839</v>
-      </c>
-      <c r="G80">
-        <v>0.002971562449721377</v>
-      </c>
-      <c r="H80">
-        <v>1</v>
-      </c>
-      <c r="I80">
-        <v>2</v>
-      </c>
-      <c r="J80">
-        <v>0.002700610302473916</v>
-      </c>
-      <c r="K80" t="b">
-        <v>1</v>
-      </c>
-      <c r="L80">
-        <v>1.125</v>
-      </c>
-      <c r="M80">
-        <v>-0.01031341022619507</v>
-      </c>
-      <c r="N80">
-        <v>0.002663786316290402</v>
-      </c>
-      <c r="O80">
-        <v>-0.1787430943524582</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1">
-        <v>7</v>
-      </c>
-      <c r="D81">
-        <v>0.84</v>
-      </c>
-      <c r="E81">
-        <v>0</v>
-      </c>
-      <c r="F81">
-        <v>0.08537373884009056</v>
-      </c>
-      <c r="G81">
-        <v>0.007366193041452328</v>
-      </c>
-      <c r="H81">
-        <v>1</v>
-      </c>
-      <c r="I81">
-        <v>2</v>
-      </c>
-      <c r="J81">
-        <v>0.06934305460769627</v>
-      </c>
-      <c r="K81" t="b">
-        <v>1</v>
-      </c>
-      <c r="L81">
-        <v>1.125</v>
-      </c>
-      <c r="M81">
-        <v>0.09604545619510188</v>
-      </c>
-      <c r="N81">
-        <v>0.0006816134021345965</v>
-      </c>
-      <c r="O81">
-        <v>0.1149075600856282</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1">
-        <v>1.25</v>
-      </c>
-      <c r="C82" s="1">
-        <v>6</v>
-      </c>
-      <c r="D82">
-        <v>1.69</v>
-      </c>
-      <c r="E82">
-        <v>0</v>
-      </c>
-      <c r="F82">
-        <v>-0.01409474103598549</v>
-      </c>
-      <c r="G82">
-        <v>0.004244424990378973</v>
-      </c>
-      <c r="H82">
-        <v>1</v>
-      </c>
-      <c r="I82">
-        <v>2</v>
-      </c>
-      <c r="J82">
-        <v>0.004857807332788186</v>
-      </c>
-      <c r="K82" t="b">
-        <v>1</v>
-      </c>
-      <c r="L82">
-        <v>1.125</v>
-      </c>
-      <c r="M82">
-        <v>-0.01585658366548368</v>
-      </c>
-      <c r="N82">
-        <v>0.002663786316290402</v>
-      </c>
-      <c r="O82">
-        <v>-0.1787430943524582</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1">
-        <v>7</v>
-      </c>
-      <c r="D83">
-        <v>0.84</v>
-      </c>
-      <c r="E83">
-        <v>0</v>
-      </c>
-      <c r="F83">
-        <v>0.0984580970384466</v>
-      </c>
-      <c r="G83">
-        <v>0.009752684748180307</v>
-      </c>
-      <c r="H83">
-        <v>1</v>
-      </c>
-      <c r="I83">
-        <v>2</v>
-      </c>
-      <c r="J83">
-        <v>0.07723380808262231</v>
-      </c>
-      <c r="K83" t="b">
-        <v>1</v>
-      </c>
-      <c r="L83">
-        <v>1.125</v>
-      </c>
-      <c r="M83">
-        <v>0.1107653591682524</v>
-      </c>
-      <c r="N83">
-        <v>0.0006816134021345965</v>
-      </c>
-      <c r="O83">
-        <v>0.1149075600856282</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="C84" s="1">
-        <v>6</v>
-      </c>
-      <c r="D84">
-        <v>1.69</v>
-      </c>
-      <c r="E84">
-        <v>0</v>
-      </c>
-      <c r="F84">
-        <v>-0.02837567125747387</v>
-      </c>
-      <c r="G84">
-        <v>0.01362963943704028</v>
-      </c>
-      <c r="H84">
-        <v>1</v>
-      </c>
-      <c r="I84">
-        <v>2</v>
-      </c>
-      <c r="J84">
-        <v>-0.001285843827325297</v>
-      </c>
-      <c r="K84" t="b">
-        <v>0</v>
-      </c>
-      <c r="L84">
-        <v>1.125</v>
-      </c>
-      <c r="M84">
-        <v>-0.03192263016465811</v>
-      </c>
-      <c r="N84">
-        <v>0.002663786316290402</v>
-      </c>
-      <c r="O84">
-        <v>-0.1787430943524582</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15">
-      <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1">
-        <v>7</v>
-      </c>
-      <c r="D85">
-        <v>0.84</v>
-      </c>
-      <c r="E85">
-        <v>0</v>
-      </c>
-      <c r="F85">
-        <v>0.08634685445317031</v>
-      </c>
-      <c r="G85">
-        <v>0.007685617053762413</v>
-      </c>
-      <c r="H85">
-        <v>1</v>
-      </c>
-      <c r="I85">
-        <v>2</v>
-      </c>
-      <c r="J85">
-        <v>0.06962102342666243</v>
-      </c>
-      <c r="K85" t="b">
-        <v>1</v>
-      </c>
-      <c r="L85">
-        <v>1.125</v>
-      </c>
-      <c r="M85">
-        <v>0.09714021125981659</v>
-      </c>
-      <c r="N85">
-        <v>0.0006816134021345965</v>
-      </c>
-      <c r="O85">
-        <v>0.1149075600856282</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1">
-        <v>1.75</v>
-      </c>
-      <c r="C86" s="1">
-        <v>6</v>
-      </c>
-      <c r="D86">
-        <v>1.69</v>
-      </c>
-      <c r="E86">
-        <v>0</v>
-      </c>
-      <c r="F86">
-        <v>-0.04930794423032406</v>
-      </c>
-      <c r="G86">
-        <v>0.01602973260597782</v>
-      </c>
-      <c r="H86">
-        <v>1</v>
-      </c>
-      <c r="I86">
-        <v>2</v>
-      </c>
-      <c r="J86">
-        <v>0.01442322422772673</v>
-      </c>
-      <c r="K86" t="b">
-        <v>1</v>
-      </c>
-      <c r="L86">
-        <v>1.125</v>
-      </c>
-      <c r="M86">
-        <v>-0.05547143725911456</v>
-      </c>
-      <c r="N86">
-        <v>0.002663786316290402</v>
-      </c>
-      <c r="O86">
-        <v>-0.1787430943524582</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1">
-        <v>7</v>
-      </c>
-      <c r="D87">
-        <v>0.84</v>
-      </c>
-      <c r="E87">
-        <v>0</v>
-      </c>
-      <c r="F87">
-        <v>0.1065616981077511</v>
-      </c>
-      <c r="G87">
-        <v>0.002026540845089385</v>
-      </c>
-      <c r="H87">
-        <v>1</v>
-      </c>
-      <c r="I87">
-        <v>2</v>
-      </c>
-      <c r="J87">
-        <v>0.10215143677074</v>
-      </c>
-      <c r="K87" t="b">
-        <v>1</v>
-      </c>
-      <c r="L87">
-        <v>1.125</v>
-      </c>
-      <c r="M87">
-        <v>0.11988191037122</v>
-      </c>
-      <c r="N87">
-        <v>0.0006816134021345965</v>
-      </c>
-      <c r="O87">
-        <v>0.1149075600856282</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15">
-      <c r="A88" s="1">
-        <v>13.5</v>
-      </c>
-      <c r="B88" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="C88" s="1">
-        <v>7</v>
-      </c>
-      <c r="D88">
-        <v>0.845</v>
-      </c>
-      <c r="E88">
-        <v>0.007071067811865481</v>
-      </c>
-      <c r="F88">
-        <v>0.02600181960561555</v>
-      </c>
-      <c r="G88">
-        <v>0.009861148537614871</v>
-      </c>
-      <c r="H88">
-        <v>1</v>
-      </c>
-      <c r="I88">
-        <v>2</v>
-      </c>
-      <c r="J88">
-        <v>0.004541486230470491</v>
-      </c>
-      <c r="K88" t="b">
-        <v>1</v>
-      </c>
-      <c r="L88">
-        <v>1.35</v>
-      </c>
-      <c r="M88">
-        <v>0.035102456467581</v>
-      </c>
-      <c r="N88">
-        <v>0.001214905534256004</v>
-      </c>
-      <c r="O88">
-        <v>0.1025151001734594</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15">
-      <c r="A89" s="1"/>
-      <c r="B89" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="C89" s="1">
-        <v>7</v>
-      </c>
-      <c r="D89">
-        <v>0.845</v>
-      </c>
-      <c r="E89">
-        <v>0.007071067811865481</v>
-      </c>
-      <c r="F89">
-        <v>0.02294102108238159</v>
-      </c>
-      <c r="G89">
-        <v>0.02348673761518097</v>
-      </c>
-      <c r="H89">
-        <v>1</v>
-      </c>
-      <c r="I89">
-        <v>2</v>
-      </c>
-      <c r="J89">
-        <v>-0.02817201277911364</v>
-      </c>
-      <c r="K89" t="b">
-        <v>0</v>
-      </c>
-      <c r="L89">
-        <v>1.35</v>
-      </c>
-      <c r="M89">
-        <v>0.03097037846121515</v>
-      </c>
-      <c r="N89">
-        <v>0.001214905534256004</v>
-      </c>
-      <c r="O89">
-        <v>0.1025151001734594</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15">
-      <c r="A90" s="1"/>
-      <c r="B90" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="C90" s="1">
-        <v>7</v>
-      </c>
-      <c r="D90">
-        <v>0.845</v>
-      </c>
-      <c r="E90">
-        <v>0.007071067811865481</v>
-      </c>
-      <c r="F90">
-        <v>0.03286971922743862</v>
-      </c>
-      <c r="G90">
-        <v>0.01273685449913711</v>
-      </c>
-      <c r="H90">
-        <v>1</v>
-      </c>
-      <c r="I90">
-        <v>2</v>
-      </c>
-      <c r="J90">
-        <v>0.005151128166816465</v>
-      </c>
-      <c r="K90" t="b">
-        <v>1</v>
-      </c>
-      <c r="L90">
-        <v>1.35</v>
-      </c>
-      <c r="M90">
-        <v>0.04437412095704214</v>
-      </c>
-      <c r="N90">
-        <v>0.001214905534256004</v>
-      </c>
-      <c r="O90">
-        <v>0.1025151001734594</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15">
-      <c r="A91" s="1"/>
-      <c r="B91" s="1">
-        <v>1</v>
-      </c>
-      <c r="C91" s="1">
-        <v>7</v>
-      </c>
-      <c r="D91">
-        <v>0.84</v>
-      </c>
-      <c r="E91">
-        <v>0</v>
-      </c>
-      <c r="F91">
-        <v>0.07886022838979639</v>
-      </c>
-      <c r="G91">
-        <v>0.01029564345068865</v>
-      </c>
-      <c r="H91">
-        <v>1</v>
-      </c>
-      <c r="I91">
-        <v>2</v>
-      </c>
-      <c r="J91">
-        <v>0.0564543250692438</v>
-      </c>
-      <c r="K91" t="b">
-        <v>1</v>
-      </c>
-      <c r="L91">
-        <v>1.35</v>
-      </c>
-      <c r="M91">
-        <v>0.1064613083262251</v>
-      </c>
-      <c r="N91">
-        <v>0.001214905534256004</v>
-      </c>
-      <c r="O91">
-        <v>0.1025151001734594</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15">
-      <c r="A92" s="1"/>
-      <c r="B92" s="1">
-        <v>1.25</v>
-      </c>
-      <c r="C92" s="1">
-        <v>7</v>
-      </c>
-      <c r="D92">
-        <v>0.845</v>
-      </c>
-      <c r="E92">
-        <v>0.007071067811865481</v>
-      </c>
-      <c r="F92">
-        <v>0.09319506707417964</v>
-      </c>
-      <c r="G92">
-        <v>0.01913076453323534</v>
-      </c>
-      <c r="H92">
-        <v>1</v>
-      </c>
-      <c r="I92">
-        <v>2</v>
-      </c>
-      <c r="J92">
-        <v>0.05156172355049182</v>
-      </c>
-      <c r="K92" t="b">
-        <v>1</v>
-      </c>
-      <c r="L92">
-        <v>1.35</v>
-      </c>
-      <c r="M92">
-        <v>0.1258133405501425</v>
-      </c>
-      <c r="N92">
-        <v>0.001214905534256004</v>
-      </c>
-      <c r="O92">
-        <v>0.1025151001734594</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15">
-      <c r="A93" s="1"/>
-      <c r="B93" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="C93" s="1">
-        <v>7</v>
-      </c>
-      <c r="D93">
-        <v>0.84</v>
-      </c>
-      <c r="E93">
-        <v>0</v>
-      </c>
-      <c r="F93">
-        <v>0.09438824189427163</v>
-      </c>
-      <c r="G93">
-        <v>0.006656008311823574</v>
-      </c>
-      <c r="H93">
-        <v>1</v>
-      </c>
-      <c r="I93">
-        <v>2</v>
-      </c>
-      <c r="J93">
-        <v>0.07990309781854722</v>
-      </c>
-      <c r="K93" t="b">
-        <v>1</v>
-      </c>
-      <c r="L93">
-        <v>1.35</v>
-      </c>
-      <c r="M93">
-        <v>0.1274241265572667</v>
-      </c>
-      <c r="N93">
-        <v>0.001214905534256004</v>
-      </c>
-      <c r="O93">
-        <v>0.1025151001734594</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15">
-      <c r="A94" s="1"/>
-      <c r="B94" s="1">
-        <v>1.75</v>
-      </c>
-      <c r="C94" s="1">
-        <v>7</v>
-      </c>
-      <c r="D94">
-        <v>0.84</v>
-      </c>
-      <c r="E94">
-        <v>0</v>
-      </c>
-      <c r="F94">
-        <v>0.1090750551779726</v>
-      </c>
-      <c r="G94">
-        <v>0.01625752540243631</v>
-      </c>
-      <c r="H94">
-        <v>2</v>
-      </c>
-      <c r="I94">
-        <v>3</v>
-      </c>
-      <c r="J94">
-        <v>0.09137610330405921</v>
-      </c>
-      <c r="K94" t="b">
-        <v>1</v>
-      </c>
-      <c r="L94">
-        <v>1.35</v>
-      </c>
-      <c r="M94">
-        <v>0.1472513244902631</v>
-      </c>
-      <c r="N94">
-        <v>0.001214905534256004</v>
-      </c>
-      <c r="O94">
-        <v>0.1025151001734594</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="27">
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="A4:A24"/>
-    <mergeCell ref="A25:A45"/>
-    <mergeCell ref="A46:A73"/>
-    <mergeCell ref="A74:A87"/>
-    <mergeCell ref="A88:A94"/>
+    <mergeCell ref="A25:A38"/>
+    <mergeCell ref="A39:A59"/>
+    <mergeCell ref="A60:A66"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="B10:B12"/>
@@ -4500,27 +3279,20 @@
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B57:B59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
